--- a/forms/app/covid_swab_result.xlsx
+++ b/forms/app/covid_swab_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12490" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12490" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -18634,7 +18634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -18786,7 +18786,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-25 14-18</v>
+        <v>2020-11-25 14-24</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>98</v>

--- a/forms/app/covid_swab_result.xlsx
+++ b/forms/app/covid_swab_result.xlsx
@@ -391,9 +391,6 @@
     <t>LGH ID</t>
   </si>
   <si>
-    <t>select_one result</t>
-  </si>
-  <si>
     <t>What is the swab test result?</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>Inconclusive</t>
+  </si>
+  <si>
+    <t>select_one swab_result</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:XFD36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="24" spans="1:1027" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -18666,36 +18666,36 @@
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3"/>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4"/>
     </row>
@@ -18786,7 +18786,7 @@
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-25 14-24</v>
+        <v>2020-11-25 14-59</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>98</v>

--- a/forms/app/covid_swab_result.xlsx
+++ b/forms/app/covid_swab_result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\js\cht-lgh\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\cht-lgh\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12490" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12495" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -352,12 +352,6 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>COVID-19 Assessment</t>
-  </si>
-  <si>
-    <t>covid_rdt</t>
-  </si>
-  <si>
     <t>pages</t>
   </si>
   <si>
@@ -416,6 +410,12 @@
   </si>
   <si>
     <t>select_one swab_result</t>
+  </si>
+  <si>
+    <t>COVID-19 Swab Result</t>
+  </si>
+  <si>
+    <t>covid_swab_result</t>
   </si>
 </sst>
 </file>
@@ -1041,34 +1041,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="41.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="68.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="24.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
     <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
     <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1028" width="8.33203125" customWidth="1"/>
+    <col min="1019" max="1028" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1027" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -1121,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
       <c r="AML1"/>
       <c r="AMM1"/>
     </row>
-    <row r="2" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="AML2"/>
       <c r="AMM2"/>
     </row>
-    <row r="3" spans="1:1027" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1027" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="AML3"/>
       <c r="AMM3"/>
     </row>
-    <row r="4" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="AML4"/>
       <c r="AMM4"/>
     </row>
-    <row r="5" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="AML5"/>
       <c r="AMM5"/>
     </row>
-    <row r="6" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="AML6"/>
       <c r="AMM6"/>
     </row>
-    <row r="7" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="AML7"/>
       <c r="AMM7"/>
     </row>
-    <row r="8" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="AML9"/>
       <c r="AMM9"/>
     </row>
-    <row r="10" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="AML10"/>
       <c r="AMM10"/>
     </row>
-    <row r="11" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="AML11"/>
       <c r="AMM11"/>
     </row>
-    <row r="12" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
@@ -1529,7 +1529,7 @@
       <c r="AML12"/>
       <c r="AMM12"/>
     </row>
-    <row r="13" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="AML13"/>
       <c r="AMM13"/>
     </row>
-    <row r="14" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="AML14"/>
       <c r="AMM14"/>
     </row>
-    <row r="15" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="AML15"/>
       <c r="AMM15"/>
     </row>
-    <row r="16" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>42</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="AML16"/>
       <c r="AMM16"/>
     </row>
-    <row r="17" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="AML17"/>
       <c r="AMM17"/>
     </row>
-    <row r="18" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="AML18"/>
       <c r="AMM18"/>
     </row>
-    <row r="19" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="AML19"/>
       <c r="AMM19"/>
     </row>
-    <row r="20" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="AML20"/>
       <c r="AMM20"/>
     </row>
-    <row r="21" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>31</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="AML21"/>
       <c r="AMM21"/>
     </row>
-    <row r="22" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="AML22" s="23"/>
       <c r="AMM22" s="23"/>
     </row>
-    <row r="23" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="R23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S23"/>
       <c r="T23"/>
@@ -1912,15 +1912,15 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1950,7 +1950,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>31</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="AML25" s="23"/>
       <c r="AMM25" s="23"/>
     </row>
-    <row r="26" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>18</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1027" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1027" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:1027" ht="155" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1027" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:1027" ht="155" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1027" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2185,12 +2185,12 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="1:1027" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -2205,7 +2205,7 @@
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
@@ -2223,15 +2223,15 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -18616,12 +18616,12 @@
       <c r="XFC33" s="35"/>
       <c r="XFD33" s="35"/>
     </row>
-    <row r="34" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
     </row>
   </sheetData>
@@ -18638,17 +18638,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="103.625" style="29" customWidth="1"/>
     <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1023" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="31" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
@@ -18659,47 +18659,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>84</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>84</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>84</v>
       </c>
@@ -18742,22 +18742,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="29" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="29" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="31" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>91</v>
       </c>
@@ -18777,22 +18777,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-25 14-59</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="33"/>
     </row>
